--- a/M3-P1/assets/PEDS-TB-Cascades-Nov-2024.xlsx
+++ b/M3-P1/assets/PEDS-TB-Cascades-Nov-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\E-Learning_M&amp;E_TB-C-203\Cascades and Illustrative Indicator Maps\Cascades-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MargieJoyce\Downloads\TB Indicator Mapping\Cascades-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA848E9E-C1D5-4B03-A907-CB901007FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8EA092-944F-4B27-9704-3AB0C7E3028B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PED TB Example Cascade" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t># of children with presumptive TB</t>
-  </si>
-  <si>
-    <t>DT_TST
-(Subnational)</t>
   </si>
   <si>
     <r>
@@ -202,6 +198,10 @@
   <si>
     <t>Pediatric (under 15 years old)* DS-TB Cascade Example - (November 2024)</t>
   </si>
+  <si>
+    <t>DT_TEST
+(Subnational)</t>
+  </si>
 </sst>
 </file>
 
@@ -218,6 +218,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -239,6 +240,7 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -412,9 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -444,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +668,7 @@
 (Subnational)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DT_TST
+                  <c:v>DT_TEST
 (Subnational)</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -988,15 +990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>452436</xdr:rowOff>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:colOff>1976437</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1013,7 +1015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="581025" y="4800599"/>
+          <a:off x="576262" y="5362575"/>
           <a:ext cx="1400175" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,15 +1053,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2243138</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>476248</xdr:rowOff>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3300413</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1076,7 +1078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2243138" y="4824411"/>
+          <a:off x="2238375" y="5386387"/>
           <a:ext cx="1057275" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1118,15 +1120,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3486150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>452436</xdr:rowOff>
+      <xdr:colOff>3481387</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4895851</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>4891088</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1143,7 +1145,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3486150" y="4800599"/>
+          <a:off x="3481387" y="5376862"/>
           <a:ext cx="1409701" cy="904876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1229,15 +1231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5091112</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:colOff>5086349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6567488</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>6562725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1254,7 +1256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5091112" y="4786312"/>
+          <a:off x="5086349" y="5362575"/>
           <a:ext cx="1476376" cy="823914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1296,15 +1298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6672261</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>466724</xdr:rowOff>
+      <xdr:colOff>6643686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>957261</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>928686</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1321,7 +1323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6672261" y="4814887"/>
+          <a:off x="6643686" y="5391150"/>
           <a:ext cx="1366838" cy="666751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,15 +1365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1157287</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>447674</xdr:rowOff>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1128713</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1388,7 +1390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8239125" y="4795837"/>
+          <a:off x="8196262" y="5372100"/>
           <a:ext cx="1247776" cy="542926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1430,15 +1432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>461961</xdr:rowOff>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1455,7 +1457,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9734549" y="4810124"/>
+          <a:off x="9677399" y="5386387"/>
           <a:ext cx="1309689" cy="523876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1700,8 +1702,8 @@
   </sheetPr>
   <dimension ref="A1:Q993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1721,12 +1723,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
-        <v>24</v>
+      <c r="A1" s="23" t="s">
+        <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="K1" s="1"/>
@@ -1744,13 +1746,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -1771,15 +1773,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
-        <v>22</v>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1796,13 +1798,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>3000</v>
       </c>
       <c r="J4" s="2"/>
@@ -1821,13 +1823,13 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>1800</v>
       </c>
       <c r="J5" s="2"/>
@@ -1846,13 +1848,13 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>1700</v>
       </c>
       <c r="J6" s="2"/>
@@ -1871,18 +1873,18 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <f>306*3</f>
         <v>918</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1899,18 +1901,18 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <f>I7*35%</f>
         <v>321.29999999999995</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1927,13 +1929,13 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="22" t="s">
-        <v>23</v>
+      <c r="G9" s="21" t="s">
+        <v>22</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>17</v>
+      <c r="H9" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <f>90%*I7</f>
         <v>826.2</v>
       </c>
@@ -1949,18 +1951,18 @@
     <row r="10" spans="1:17" ht="32.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="22" t="s">
-        <v>20</v>
+      <c r="G10" s="21" t="s">
+        <v>19</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>18</v>
+      <c r="H10" s="22" t="s">
+        <v>17</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f>85%*I7</f>
         <v>780.3</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
